--- a/Processed/Cook_county - Copy.xlsx
+++ b/Processed/Cook_county - Copy.xlsx
@@ -586,10 +586,10 @@
   <dimension ref="A1:K35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="8.7109375" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.7109375" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
     <col width="28" customWidth="1" style="8" min="1" max="1"/>
     <col width="18.85546875" customWidth="1" style="8" min="2" max="2"/>
@@ -602,8 +602,8 @@
     <col width="19.5703125" customWidth="1" style="8" min="9" max="9"/>
     <col width="24.140625" customWidth="1" style="8" min="10" max="10"/>
     <col width="24.5703125" customWidth="1" style="8" min="11" max="11"/>
-    <col width="8.7109375" customWidth="1" style="8" min="12" max="50"/>
-    <col width="8.7109375" customWidth="1" style="8" min="51" max="16384"/>
+    <col width="8.7109375" customWidth="1" style="8" min="12" max="51"/>
+    <col width="8.7109375" customWidth="1" style="8" min="52" max="16384"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -669,7 +669,7 @@
       </c>
       <c r="B2" s="22" t="inlineStr">
         <is>
-          <t>Maximum Retry Error</t>
+          <t>30-19-223-011-0000</t>
         </is>
       </c>
       <c r="C2" s="9" t="inlineStr">
@@ -703,10 +703,10 @@
         </is>
       </c>
       <c r="J2" s="24" t="n">
-        <v>45071.64485525463</v>
+        <v>45071.6589171875</v>
       </c>
       <c r="K2" s="24" t="n">
-        <v>45071.54145520833</v>
+        <v>45071.6622203842</v>
       </c>
     </row>
     <row r="3" ht="15" customHeight="1" s="8" thickBot="1">
@@ -1125,7 +1125,7 @@
       <selection activeCell="A1" sqref="A1:G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
     <col width="60.42578125" customWidth="1" style="8" min="1" max="1"/>
   </cols>
